--- a/Design/DWH.Design.Template.xlsx
+++ b/Design/DWH.Design.Template.xlsx
@@ -10,7 +10,7 @@
     <sheet r:id="rId1" sheetId="1" name="ReadMe"/>
     <sheet r:id="rId2" sheetId="2" name="1.Business"/>
     <sheet r:id="rId3" sheetId="3" name="2.Tables"/>
-    <sheet r:id="rId4" sheetId="4" name="3.Cleaning&amp;amp;EDA"/>
+    <sheet r:id="rId4" sheetId="4" name="3.Cleaning&amp;amp;amp;EDA"/>
     <sheet r:id="rId5" sheetId="5" name="4.Dim.Tables"/>
     <sheet r:id="rId6" sheetId="6" name="5.Fact.Table"/>
     <sheet r:id="rId7" sheetId="7" name="6.Star Schema"/>
@@ -390,6 +390,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -405,7 +411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -418,7 +424,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -437,12 +443,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1011,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,85 +1025,91 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
@@ -1112,41 +1118,47 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1160,166 +1172,163 @@
     <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
@@ -1328,22 +1337,22 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1682,380 +1691,380 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="100" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="100" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="20" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="21" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
-      <c r="A1" s="101"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="103" t="s">
+      <c r="L2" s="106" t="s">
         <v>59</v>
       </c>
       <c r="M2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="106"/>
+      <c r="M3" s="109"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="107"/>
+      <c r="M4" s="110"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="108"/>
+      <c r="M5" s="111"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="109"/>
+      <c r="M6" s="112"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="110"/>
+      <c r="M7" s="113"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="111"/>
+      <c r="M8" s="114"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -2080,209 +2089,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="100" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="100" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="100" width="40.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="100" width="31.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="100" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="100" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="40.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.20000000000001">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="36.75">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="79" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="86"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="87"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="91"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="13.800000000000002">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="66.6">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="30.600000000000005">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="83" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="112.2">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="86"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="87"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="91"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="82.2">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.4">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="25.8">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="85.2" customFormat="1" s="30">
-      <c r="A20" s="97" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="85.2" customFormat="1" s="32">
+      <c r="A20" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2320,604 +2329,604 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="63" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="63" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="63" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="63" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="63" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="63" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="78" width="106.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="78" width="36.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="82" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="67" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="67" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="67" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="67" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="67" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="67" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="49" width="106.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="49" width="36.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42">
-      <c r="A1" s="64" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="29.25">
+      <c r="A1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="42">
-      <c r="A2" s="65" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5" customFormat="1" s="30">
-      <c r="A3" s="67" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="31.5" customFormat="1" s="32">
+      <c r="A3" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.6">
-      <c r="A4" s="70">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="74">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
-      <c r="A5" s="70">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="74">
         <v>2</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="70">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="74">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="70">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="74">
         <v>4</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="70">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="74">
         <v>5</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="70">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="74">
         <v>6</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="70">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="74">
         <v>7</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="70">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="74">
         <v>8</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="70"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="70"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="70"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="70"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
-      <c r="A16" s="70"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="70"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
-      <c r="A18" s="70"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="74"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="74"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="74"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="74"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="74"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="74"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="74"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="75"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="75"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15">
-      <c r="A21" s="75"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15">
-      <c r="A22" s="75"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15">
-      <c r="A27" s="77"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15">
-      <c r="A34" s="77"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15">
-      <c r="A35" s="77"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15">
-      <c r="A36" s="77"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15">
-      <c r="A37" s="77"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15">
-      <c r="A38" s="77"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15">
-      <c r="A39" s="77"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15">
-      <c r="A40" s="77"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15">
-      <c r="A41" s="77"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15">
-      <c r="A42" s="77"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15">
-      <c r="A43" s="77"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15">
-      <c r="A44" s="77"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15">
-      <c r="A45" s="77"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15">
-      <c r="A46" s="77"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15">
-      <c r="A47" s="77"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15">
-      <c r="A48" s="77"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15">
-      <c r="A49" s="77"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15">
-      <c r="A50" s="77"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2943,465 +2952,465 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="62" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="63" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="63" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="63" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="63" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="63" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="63" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="63" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="63" width="61.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="66" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="67" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="67" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="67" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="67" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="67" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="67" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="67" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="67" width="61.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
-      <c r="A3" s="56">
+      <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
-      <c r="A4" s="56">
+      <c r="A4" s="60">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
-      <c r="A5" s="56">
+      <c r="A5" s="60">
         <v>3</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="55"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="56">
+      <c r="A6" s="60">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="55"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="59"/>
       <c r="K6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="56">
+      <c r="A7" s="60">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="55"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="56">
+      <c r="A8" s="60">
         <v>6</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="55"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="59"/>
       <c r="K8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="56">
+      <c r="A9" s="60">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="55"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="56">
+      <c r="A10" s="60">
         <v>8</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="55"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="56">
+      <c r="A11" s="60">
         <v>9</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="55"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="56">
+      <c r="A12" s="60">
         <v>10</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="55"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="59"/>
       <c r="K12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="56">
+      <c r="A13" s="60">
         <v>11</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="55"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="59"/>
       <c r="K13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="56">
+      <c r="A14" s="60">
         <v>12</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="59"/>
       <c r="K14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="56">
+      <c r="A15" s="60">
         <v>13</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="55"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
-      <c r="A16" s="56">
+      <c r="A16" s="60">
         <v>14</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="55"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="56">
+      <c r="A17" s="60">
         <v>15</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="55"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
-      <c r="A18" s="56">
+      <c r="A18" s="60">
         <v>16</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="55"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="53" t="s">
+      <c r="I21" s="64"/>
+      <c r="J21" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="58"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
-      <c r="A22" s="61">
+      <c r="A22" s="65">
         <v>1</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="57"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="61"/>
       <c r="K22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="30.600000000000005">
-      <c r="A23" s="61">
+      <c r="A23" s="65">
         <v>2</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="57"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="61"/>
       <c r="K23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="27.600000000000005">
-      <c r="A24" s="61">
+      <c r="A24" s="65">
         <v>3</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="57"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="61"/>
       <c r="K24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="28.8">
-      <c r="A25" s="61">
+      <c r="A25" s="65">
         <v>4</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="57"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="61"/>
       <c r="K25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="30">
-      <c r="A26" s="61">
+      <c r="A26" s="65">
         <v>5</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="57"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="61"/>
       <c r="K26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="26.399999999999995">
-      <c r="A27" s="61">
+      <c r="A27" s="65">
         <v>6</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="57"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="61"/>
       <c r="K27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
-      <c r="A28" s="61">
+      <c r="A28" s="65">
         <v>7</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="57"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="4"/>
     </row>
   </sheetData>
@@ -3450,627 +3459,627 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="40.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="61.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="40.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="61.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="49" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="49" width="27.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="43.20000000000001">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5" customFormat="1" s="30">
-      <c r="A4" s="37" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5" customFormat="1" s="32">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5" customFormat="1" s="30">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5" customFormat="1" s="32">
+      <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="4" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="31"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5" customFormat="1" s="30">
-      <c r="A18" s="43" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5" customFormat="1" s="32">
+      <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5" customFormat="1" s="30">
-      <c r="A31" s="43" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5" customFormat="1" s="32">
+      <c r="A31" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5" customFormat="1" s="30">
-      <c r="A46" s="43" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5" customFormat="1" s="32">
+      <c r="A46" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4097,157 +4106,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="42.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="46.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="42.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="22" width="46.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="48">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="53.70000000000001">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30.600000000000005">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5" customFormat="1" s="30">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5" customFormat="1" s="32">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4271,21 +4280,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="48.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="11.862142857142858" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="10" max="10" style="20" width="11.862142857142858" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="11" max="11" style="20" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="21" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="20" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="20" width="43.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="20" width="43.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="21" width="48.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="22" width="11.862142857142858" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="10" max="10" style="22" width="11.862142857142858" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="11" max="11" style="21" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="23" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="21" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="21" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="21" width="43.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="29.25">
@@ -4316,10 +4325,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -4333,114 +4342,114 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="O5" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="14">
+      <c r="L6" s="15">
         <v>1</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="14">
+      <c r="L7" s="15">
         <v>2</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="14">
+      <c r="L8" s="15">
         <v>3</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="4"/>
@@ -4451,15 +4460,15 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="14">
+      <c r="L9" s="15">
         <v>4</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="4"/>
@@ -4470,15 +4479,15 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="14">
+      <c r="L10" s="15">
         <v>5</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4"/>
@@ -4489,15 +4498,15 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="14">
+      <c r="L11" s="15">
         <v>6</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
       <c r="A12" s="4"/>
@@ -4508,10 +4517,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -4525,10 +4534,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -4542,10 +4551,10 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -4559,10 +4568,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -4576,10 +4585,10 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -4593,10 +4602,10 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -4610,10 +4619,10 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -4627,10 +4636,10 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -4644,10 +4653,10 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -4661,10 +4670,10 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -4678,10 +4687,10 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -4695,10 +4704,10 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -4712,10 +4721,10 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -4729,10 +4738,10 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -4746,10 +4755,10 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -4763,10 +4772,10 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -4780,10 +4789,10 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -4797,10 +4806,10 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -4814,10 +4823,10 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -4831,10 +4840,10 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
